--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Sediment_Freshwater_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Sediment_Freshwater_mass_flows.xlsx
@@ -539,16 +539,16 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>4.360897911675682E-05</v>
+        <v>3.183813311787415E-24</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0002717904581710938</v>
+        <v>1.984293364045812E-23</v>
       </c>
       <c r="F7">
-        <v>7.338342370619533E-05</v>
+        <v>5.357592082923691E-24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -639,16 +639,16 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>5.797520538296324E-10</v>
+        <v>1.341933390787962E-27</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.806635692091237E-09</v>
+        <v>4.181761399881104E-27</v>
       </c>
       <c r="F12">
-        <v>4.877916368646338E-10</v>
+        <v>1.129075577967898E-27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -659,16 +659,16 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>1.351701036022576E-11</v>
+        <v>3.701176254331037E-28</v>
       </c>
       <c r="D13">
-        <v>1.001759784983345E-12</v>
+        <v>2.742980459372967E-29</v>
       </c>
       <c r="E13">
-        <v>4.212199543897967E-11</v>
+        <v>1.153368423557145E-27</v>
       </c>
       <c r="F13">
-        <v>1.137293876852451E-11</v>
+        <v>3.114094743604292E-28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -679,16 +679,16 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>5.955993424122409E-12</v>
+        <v>3.022253754609902E-28</v>
       </c>
       <c r="D14">
-        <v>1.765619625318221E-12</v>
+        <v>8.959295556336483E-29</v>
       </c>
       <c r="E14">
-        <v>1.856019350134514E-11</v>
+        <v>9.418011488820912E-28</v>
       </c>
       <c r="F14">
-        <v>5.011252245363188E-12</v>
+        <v>2.542863101981646E-28</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -699,16 +699,16 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>6.794834194390404E-13</v>
+        <v>2.016736319143734E-27</v>
       </c>
       <c r="D15">
-        <v>1.712145730792464E-12</v>
+        <v>5.081722938591634E-27</v>
       </c>
       <c r="E15">
-        <v>2.117420696716515E-12</v>
+        <v>6.284596650644148E-27</v>
       </c>
       <c r="F15">
-        <v>5.71703588113459E-13</v>
+        <v>1.69684109567392E-27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -739,16 +739,16 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>0.02046520447331353</v>
+        <v>2.130540900317189E-19</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2550964233982584</v>
+        <v>2.655694763682091E-18</v>
       </c>
       <c r="F17">
-        <v>0.06887603431752977</v>
+        <v>7.170375861941645E-19</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -759,16 +759,16 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>0.003481603762422435</v>
+        <v>4.867349315448403E-20</v>
       </c>
       <c r="D18">
-        <v>1.032113936843827E-05</v>
+        <v>1.442915221480054E-22</v>
       </c>
       <c r="E18">
-        <v>0.04339779104782544</v>
+        <v>6.067095021796351E-19</v>
       </c>
       <c r="F18">
-        <v>0.01171740358291287</v>
+        <v>1.638115655885015E-19</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -779,16 +779,16 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.001838035363267246</v>
+        <v>3.500210998188149E-20</v>
       </c>
       <c r="D19">
-        <v>2.179500012398658E-05</v>
+        <v>4.150469608151817E-22</v>
       </c>
       <c r="E19">
-        <v>0.02291089971079469</v>
+        <v>4.362972810466508E-19</v>
       </c>
       <c r="F19">
-        <v>0.006185942921914565</v>
+        <v>1.178002658825957E-19</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -799,16 +799,16 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>0.0003000824160419221</v>
+        <v>8.906576523497707E-19</v>
       </c>
       <c r="D20">
-        <v>3.02456138280821E-05</v>
+        <v>8.977029631164394E-20</v>
       </c>
       <c r="E20">
-        <v>0.00374049285248154</v>
+        <v>1.110194534743045E-17</v>
       </c>
       <c r="F20">
-        <v>0.001009933070170016</v>
+        <v>2.997525243806222E-18</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -918,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.000388782860994046</v>
+        <v>2.838433903516922E-23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -973,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>2.871267525749384E-09</v>
+        <v>3.531510323106573E-27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>6.678846539389569E-11</v>
+        <v>8.011842624443985E-28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>3.095062964999047E-11</v>
+        <v>5.715612023862837E-28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1006,7 +1006,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>5.080753435061479E-12</v>
+        <v>1.507989700405344E-26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1028,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>0.3443982961813745</v>
+        <v>3.531572447118433E-18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>0.05859017290970159</v>
+        <v>8.011772697020322E-19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.03095062387333488</v>
+        <v>5.715606446096145E-19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1061,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>0.00508075395252156</v>
+        <v>1.507989853989808E-17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
